--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Bataille\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Bataille-Navale\Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097160B-7DCC-4AD9-94F9-CED5929F7637}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
+    <workbookView xWindow="5100" yWindow="2415" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Qui</t>
   </si>
@@ -83,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -414,6 +421,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,36 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,11 +739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,21 +754,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -794,32 +801,32 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>43894</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <f>D3-C3</f>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -854,48 +861,64 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>43896</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <v>0.6069444444444444</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="23">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="22">
+        <v>43896</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.95347222222222217</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.99444444444444446</v>
+      </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+        <v>4.0972222222222299E-2</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Bataille-Navale\Informations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel.MACHADO-PERE\Documents\GitHub\Bataille-Navale\Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097160B-7DCC-4AD9-94F9-CED5929F7637}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2415" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="2415" windowWidth="21600" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Qui</t>
   </si>
@@ -85,12 +84,21 @@
   </si>
   <si>
     <t>Création d'une maquette pour la bataille navale</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Planifications des sprint</t>
+  </si>
+  <si>
+    <t>Création des sprints pour chaques semaines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -739,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,17 +930,31 @@
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="13">
+        <v>43901</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1105,7 +1127,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f ca="1">TODAY()</f>
-        <v>43896</v>
+        <v>43902</v>
       </c>
     </row>
   </sheetData>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Qui</t>
   </si>
@@ -751,7 +751,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,17 +958,31 @@
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="13">
+        <v>43902</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Qui</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Création des sprints pour chaques semaines</t>
+  </si>
+  <si>
+    <t>CLion</t>
+  </si>
+  <si>
+    <t>Programmation du jeu</t>
+  </si>
+  <si>
+    <t>Création des différentes fonctions</t>
   </si>
 </sst>
 </file>
@@ -751,7 +760,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,17 +995,29 @@
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="13">
+        <v>43902</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.6777777777777777</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
+        <v>-0.6777777777777777</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -760,7 +760,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,10 +1001,12 @@
       <c r="C9" s="11">
         <v>0.6777777777777777</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>0.70416666666666661</v>
+      </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>-0.6777777777777777</v>
+        <v>2.6388888888888906E-2</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>21</v>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Qui</t>
   </si>
@@ -760,7 +760,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,17 +1023,31 @@
     </row>
     <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="13">
+        <v>43903</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+        <v>0.10069444444444436</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1164,7 +1178,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f ca="1">TODAY()</f>
-        <v>43902</v>
+        <v>43903</v>
       </c>
     </row>
   </sheetData>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel.MACHADO-PERE\Documents\GitHub\Bataille-Navale\Informations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Bataille-Navale\Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C576B6-AEF2-421D-8C21-DC6C4881BB02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2415" windowWidth="21600" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Qui</t>
   </si>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -756,11 +757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,31 +1052,57 @@
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="13">
+        <v>43903</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="13">
+        <v>43903</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.86458333333333337</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
+        <v>-0.86458333333333337</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Bataille-Navale\Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C576B6-AEF2-421D-8C21-DC6C4881BB02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84282F5F-D903-4A19-8C09-91A51F35C6C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Qui</t>
   </si>
@@ -761,7 +761,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,10 +1086,12 @@
       <c r="C12" s="11">
         <v>0.86458333333333337</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>-0.86458333333333337</v>
+        <v>9.375E-2</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>21</v>
@@ -1106,17 +1108,31 @@
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="13">
+        <v>43904</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -1205,7 +1221,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f ca="1">TODAY()</f>
-        <v>43903</v>
+        <v>43904</v>
       </c>
     </row>
   </sheetData>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Bataille-Navale\Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84282F5F-D903-4A19-8C09-91A51F35C6C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5ADF7D-C9F1-4F66-B2FC-D4099601A22E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,11 +1115,11 @@
         <v>0.625</v>
       </c>
       <c r="D13" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>21</v>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Bataille-Navale\Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5ADF7D-C9F1-4F66-B2FC-D4099601A22E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D0F4F-CCF7-4191-AC26-E3599B910B90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Qui</t>
   </si>
@@ -761,7 +761,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,17 +1136,31 @@
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="13">
+        <v>43907</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.61319444444444449</v>
+      </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -1221,7 +1235,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f ca="1">TODAY()</f>
-        <v>43904</v>
+        <v>43907</v>
       </c>
     </row>
   </sheetData>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Bataille-Navale\Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D0F4F-CCF7-4191-AC26-E3599B910B90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A9F9D-BF40-4354-8BFC-FED0F7A94AC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="3255" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>Qui</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Création des différentes fonctions</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Création de la stratégie</t>
+  </si>
+  <si>
+    <t>Création de la stratégie de test</t>
   </si>
 </sst>
 </file>
@@ -760,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +948,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="13">
         <v>43901</v>
       </c>
@@ -967,7 +978,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="13">
         <v>43902</v>
       </c>
@@ -995,7 +1008,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" s="13">
         <v>43902</v>
       </c>
@@ -1023,7 +1038,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="13">
         <v>43903</v>
       </c>
@@ -1051,7 +1068,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" s="13">
         <v>43903</v>
       </c>
@@ -1079,7 +1098,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="13">
         <v>43903</v>
       </c>
@@ -1107,7 +1128,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="13">
         <v>43904</v>
       </c>
@@ -1135,7 +1158,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="13">
         <v>43907</v>
       </c>
@@ -1163,46 +1188,94 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13">
+        <v>43917</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="13">
+        <v>43921</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13">
+        <v>43921</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -1235,7 +1308,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f ca="1">TODAY()</f>
-        <v>43907</v>
+        <v>43921</v>
       </c>
     </row>
   </sheetData>

--- a/Informations/Journal de travail.xlsx
+++ b/Informations/Journal de travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Bataille-Navale\Informations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A9F9D-BF40-4354-8BFC-FED0F7A94AC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A2BFD4-F6F2-4B23-99D8-94D288C4D31A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3255" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="27">
   <si>
     <t>Qui</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Gabriel Pereira</t>
   </si>
   <si>
-    <t>draw.io</t>
-  </si>
-  <si>
     <t>Création de MCD</t>
   </si>
   <si>
@@ -87,31 +84,34 @@
     <t>Création d'une maquette pour la bataille navale</t>
   </si>
   <si>
-    <t>GitHub</t>
-  </si>
-  <si>
     <t>Planifications des sprint</t>
   </si>
   <si>
     <t>Création des sprints pour chaques semaines</t>
   </si>
   <si>
-    <t>CLion</t>
-  </si>
-  <si>
     <t>Programmation du jeu</t>
   </si>
   <si>
     <t>Création des différentes fonctions</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>Création de la stratégie</t>
   </si>
   <si>
     <t>Création de la stratégie de test</t>
+  </si>
+  <si>
+    <t>Aide de Nathanaël Collaud et Kenan Augsburger</t>
+  </si>
+  <si>
+    <t>Aide le Luke Cornaz</t>
+  </si>
+  <si>
+    <t>Travail avec Luke Cornaz</t>
+  </si>
+  <si>
+    <t>Supports de cours</t>
   </si>
 </sst>
 </file>
@@ -121,17 +121,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -187,7 +180,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -205,73 +198,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -399,93 +332,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,35 +750,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="23" customWidth="1"/>
+    <col min="1" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -828,494 +813,620 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10">
         <v>43894</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="11">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="11">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="11">
         <f>D3-C3</f>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="F3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>17</v>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
         <v>43896</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>0.5625</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>0.60347222222222219</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <f t="shared" ref="E4:E19" si="0">D4-C4</f>
         <v>4.0972222222222188E-2</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="15">
         <v>43896</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="16">
         <v>0.6069444444444444</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="16">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="24" t="s">
+      <c r="I5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15">
         <v>43896</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>0.95347222222222217</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>0.99444444444444446</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>4.0972222222222299E-2</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8">
         <v>43901</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>6.597222222222221E-2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
         <v>43902</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>1.0416666666666741E-2</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="A9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
         <v>43902</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>0.6777777777777777</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>0.70416666666666661</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>2.6388888888888906E-2</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
         <v>43903</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0.10069444444444436</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="A11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
         <v>43903</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>6.597222222222221E-2</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
         <v>43903</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>0.86458333333333337</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
         <v>43904</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>0.625</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
         <v>43907</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>0.61319444444444449</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>2.9861111111111116E-2</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>23</v>
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="A15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
         <v>43917</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>0.625</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>23</v>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
         <v>43921</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>23</v>
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="A17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
         <v>43921</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>0.875</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.9375</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" ref="E18:E19" si="1">D18-C18</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8">
+        <v>43924</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" ref="E19" si="2">D19-C19</f>
+        <v>0.125</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="24">
+        <v>43928</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" ref="E20:E23" si="3">D20-C20</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <f ca="1">TODAY()</f>
-        <v>43921</v>
-      </c>
+      <c r="G20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="24">
+        <v>43929</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.8125</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="3"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="21">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
